--- a/media/excel_files/Shablon-1.xlsx
+++ b/media/excel_files/Shablon-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U_Rajabov\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E655BAE-73DD-4BC4-946A-96F496E6E855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71ED89C2-FA3F-45B0-80AC-9936814B61F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{D166AF9B-51CE-46FE-ABCB-274D3E38DA8A}"/>
   </bookViews>
@@ -730,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E943F0-8631-42F6-AA28-857E42C9534B}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/media/excel_files/Shablon-1.xlsx
+++ b/media/excel_files/Shablon-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U_Rajabov\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D9430-1ACA-4D1A-9FD7-A487FB83CD7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52C1E09B-0107-4C87-8A4A-010B562EC8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{D166AF9B-51CE-46FE-ABCB-274D3E38DA8A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="101">
   <si>
     <t>ПОДРАЗДЕЛЕНИЕ</t>
   </si>
@@ -331,6 +331,12 @@
   </si>
   <si>
     <t>ОКЛАД_РАБОТНИКА_СУМ</t>
+  </si>
+  <si>
+    <t>G'opirov Qobiljon Xayitmaxamad o'g'li</t>
+  </si>
+  <si>
+    <t>Gopirov_Q_2489</t>
   </si>
 </sst>
 </file>
@@ -728,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E943F0-8631-42F6-AA28-857E42C9534B}">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+      <selection activeCell="U50" sqref="U50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3937,6 +3943,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="2">
+        <v>11862900</v>
+      </c>
+      <c r="J50" s="4">
+        <v>45261</v>
+      </c>
+      <c r="K50" s="4">
+        <v>45291</v>
+      </c>
+      <c r="L50" t="s">
+        <v>41</v>
+      </c>
+      <c r="M50" t="s">
+        <v>33</v>
+      </c>
+      <c r="N50" t="s">
+        <v>8</v>
+      </c>
+      <c r="O50" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q50">
+        <v>100</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
